--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.78929771242466</v>
+        <v>94.03756700000001</v>
       </c>
       <c r="H2">
-        <v>4.78929771242466</v>
+        <v>282.112701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.919649035064912</v>
+        <v>263.9035463333333</v>
       </c>
       <c r="N2">
-        <v>0.919649035064912</v>
+        <v>791.710639</v>
       </c>
       <c r="O2">
-        <v>0.1258319838289154</v>
+        <v>0.9572387917213622</v>
       </c>
       <c r="P2">
-        <v>0.1258319838289154</v>
+        <v>0.9572387917213622</v>
       </c>
       <c r="Q2">
-        <v>4.404473019869929</v>
+        <v>24816.84741985844</v>
       </c>
       <c r="R2">
-        <v>4.404473019869929</v>
+        <v>223351.6267787259</v>
       </c>
       <c r="S2">
-        <v>0.1258319838289154</v>
+        <v>0.9081235337490799</v>
       </c>
       <c r="T2">
-        <v>0.1258319838289154</v>
+        <v>0.9081235337490799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.78929771242466</v>
+        <v>94.03756700000001</v>
       </c>
       <c r="H3">
-        <v>4.78929771242466</v>
+        <v>282.112701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.948690694112009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.84733926357912</v>
+        <v>0.9720173333333334</v>
       </c>
       <c r="N3">
-        <v>5.84733926357912</v>
+        <v>2.916052</v>
       </c>
       <c r="O3">
-        <v>0.8000685822553336</v>
+        <v>0.003525730179150291</v>
       </c>
       <c r="P3">
-        <v>0.8000685822553336</v>
+        <v>0.003525730179150291</v>
       </c>
       <c r="Q3">
-        <v>28.00464855883038</v>
+        <v>91.40614510849468</v>
       </c>
       <c r="R3">
-        <v>28.00464855883038</v>
+        <v>822.655305976452</v>
       </c>
       <c r="S3">
-        <v>0.8000685822553336</v>
+        <v>0.003344827410909748</v>
       </c>
       <c r="T3">
-        <v>0.8000685822553336</v>
+        <v>0.003344827410909748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>94.03756700000001</v>
+      </c>
+      <c r="H4">
+        <v>282.112701</v>
+      </c>
+      <c r="I4">
+        <v>0.948690694112009</v>
+      </c>
+      <c r="J4">
+        <v>0.948690694112009</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>9.990833333333333</v>
+      </c>
+      <c r="N4">
+        <v>29.9725</v>
+      </c>
+      <c r="O4">
+        <v>0.03623904779290016</v>
+      </c>
+      <c r="P4">
+        <v>0.03623904779290017</v>
+      </c>
+      <c r="Q4">
+        <v>939.5136589691667</v>
+      </c>
+      <c r="R4">
+        <v>8455.6229307225</v>
+      </c>
+      <c r="S4">
+        <v>0.03437964740460472</v>
+      </c>
+      <c r="T4">
+        <v>0.03437964740460472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>94.03756700000001</v>
+      </c>
+      <c r="H5">
+        <v>282.112701</v>
+      </c>
+      <c r="I5">
+        <v>0.948690694112009</v>
+      </c>
+      <c r="J5">
+        <v>0.948690694112009</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.8260933333333332</v>
+      </c>
+      <c r="N5">
+        <v>2.47828</v>
+      </c>
+      <c r="O5">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="P5">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="Q5">
+        <v>77.68380718158667</v>
+      </c>
+      <c r="R5">
+        <v>699.15426463428</v>
+      </c>
+      <c r="S5">
+        <v>0.00284268554741459</v>
+      </c>
+      <c r="T5">
+        <v>0.00284268554741459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H6">
+        <v>15.257878</v>
+      </c>
+      <c r="I6">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J6">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>263.9035463333333</v>
+      </c>
+      <c r="N6">
+        <v>791.710639</v>
+      </c>
+      <c r="O6">
+        <v>0.9572387917213622</v>
+      </c>
+      <c r="P6">
+        <v>0.9572387917213622</v>
+      </c>
+      <c r="Q6">
+        <v>1342.202704573783</v>
+      </c>
+      <c r="R6">
+        <v>12079.82434116404</v>
+      </c>
+      <c r="S6">
+        <v>0.0491152579722823</v>
+      </c>
+      <c r="T6">
+        <v>0.0491152579722823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.78929771242466</v>
-      </c>
-      <c r="H4">
-        <v>4.78929771242466</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.541559234988531</v>
-      </c>
-      <c r="N4">
-        <v>0.541559234988531</v>
-      </c>
-      <c r="O4">
-        <v>0.074099433915751</v>
-      </c>
-      <c r="P4">
-        <v>0.074099433915751</v>
-      </c>
-      <c r="Q4">
-        <v>2.59368840527302</v>
-      </c>
-      <c r="R4">
-        <v>2.59368840527302</v>
-      </c>
-      <c r="S4">
-        <v>0.074099433915751</v>
-      </c>
-      <c r="T4">
-        <v>0.074099433915751</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H7">
+        <v>15.257878</v>
+      </c>
+      <c r="I7">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J7">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9720173333333334</v>
+      </c>
+      <c r="N7">
+        <v>2.916052</v>
+      </c>
+      <c r="O7">
+        <v>0.003525730179150291</v>
+      </c>
+      <c r="P7">
+        <v>0.003525730179150291</v>
+      </c>
+      <c r="Q7">
+        <v>4.943640628628445</v>
+      </c>
+      <c r="R7">
+        <v>44.492765657656</v>
+      </c>
+      <c r="S7">
+        <v>0.0001809027682405437</v>
+      </c>
+      <c r="T7">
+        <v>0.0001809027682405437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H8">
+        <v>15.257878</v>
+      </c>
+      <c r="I8">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J8">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.990833333333333</v>
+      </c>
+      <c r="N8">
+        <v>29.9725</v>
+      </c>
+      <c r="O8">
+        <v>0.03623904779290016</v>
+      </c>
+      <c r="P8">
+        <v>0.03623904779290017</v>
+      </c>
+      <c r="Q8">
+        <v>50.81297203944444</v>
+      </c>
+      <c r="R8">
+        <v>457.316748355</v>
+      </c>
+      <c r="S8">
+        <v>0.00185940038829544</v>
+      </c>
+      <c r="T8">
+        <v>0.00185940038829544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.085959333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.257878</v>
+      </c>
+      <c r="I9">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="J9">
+        <v>0.05130930588799102</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8260933333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.47828</v>
+      </c>
+      <c r="O9">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="P9">
+        <v>0.002996430306587325</v>
+      </c>
+      <c r="Q9">
+        <v>4.201477098871111</v>
+      </c>
+      <c r="R9">
+        <v>37.81329388984</v>
+      </c>
+      <c r="S9">
+        <v>0.0001537447591727358</v>
+      </c>
+      <c r="T9">
+        <v>0.0001537447591727358</v>
       </c>
     </row>
   </sheetData>
